--- a/CCase.xlsx
+++ b/CCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7019A2D1-B149-4F50-AE46-D6EE73E25D87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AEE606-BDD7-4C6F-8D65-680E7364C840}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CCase.xlsx
+++ b/CCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -46,6 +46,84 @@
     <x:t>ReasonToReject</x:t>
   </x:si>
   <x:si>
+    <x:t>TestScenario_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Case tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Case Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Case Origin </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Case Origin field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Case Origin field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Case Number </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Case Number field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Case Number field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for required field Priority  @ Valid value for required field Priority, value should be equals High for Escalation Process.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Priority field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Priority field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Status </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Status field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Status field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Case with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Case is created</x:t>
+  </x:si>
+  <x:si>
     <x:t>TestScenario_2</x:t>
   </x:si>
   <x:si>
@@ -55,21 +133,12 @@
     <x:t>View Case</x:t>
   </x:si>
   <x:si>
-    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 1</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Click on the Case tab,  and select a Case </x:t>
   </x:si>
   <x:si>
     <x:t>User should be navigated to the Case Page</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 2</x:t>
-  </x:si>
-  <x:si>
     <x:t>Click on Case name to View the Details</x:t>
   </x:si>
   <x:si>
@@ -91,58 +160,31 @@
     <x:t>User is navigated to the Case Details page</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Valid value for required field Case Origin </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Case Origin field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Case Origin field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Case Number </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Case Number field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Case Number field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for required field Priority  @ Valid value for required field Priority, value should be equals High for Escalation Process.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Priority field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Priority field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Status </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Status field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Status field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Save button to save Case with fields</x:t>
-  </x:si>
-  <x:si>
     <x:t>User should be able to validate that the Case is edited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Case tab,  and select the existing  Case to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on to the Delete to Delete the Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Confirm / OK to delete the  Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the Case is deleted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -226,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J21" totalsRowShown="0">
-  <x:autoFilter ref="A1:J21"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J18" totalsRowShown="0">
+  <x:autoFilter ref="A1:J18"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -532,7 +574,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J21"/>
+  <x:dimension ref="A1:J18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -544,8 +586,8 @@
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="116.130625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="53.700625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="56.840625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="55.840625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="90.550625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -613,35 +655,31 @@
       <x:c r="B3" s="0" t="s"/>
       <x:c r="C3" s="0" t="s"/>
       <x:c r="D3" s="0" t="s"/>
-      <x:c r="E3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="A4" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s"/>
-      <x:c r="F4" s="0" t="s">
-        <x:v>14</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
         <x:v>23</x:v>
@@ -661,13 +699,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
@@ -678,16 +716,16 @@
       <x:c r="C6" s="0" t="s"/>
       <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
@@ -697,9 +735,7 @@
       <x:c r="B7" s="0" t="s"/>
       <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
+      <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
@@ -713,21 +749,27 @@
       <x:c r="J7" s="0" t="s"/>
     </x:row>
     <x:row r="8" spans="1:10">
-      <x:c r="A8" s="0" t="s"/>
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
-      <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="0" t="s">
+      <x:c r="A8" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -739,7 +781,7 @@
       <x:c r="D9" s="0" t="s"/>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>41</x:v>
@@ -752,13 +794,13 @@
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>13</x:v>
@@ -768,10 +810,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -782,16 +824,16 @@
       <x:c r="C11" s="0" t="s"/>
       <x:c r="D11" s="0" t="s"/>
       <x:c r="E11" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -802,16 +844,16 @@
       <x:c r="C12" s="0" t="s"/>
       <x:c r="D12" s="0" t="s"/>
       <x:c r="E12" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
@@ -822,16 +864,16 @@
       <x:c r="C13" s="0" t="s"/>
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -842,16 +884,16 @@
       <x:c r="C14" s="0" t="s"/>
       <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -863,26 +905,26 @@
       <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
     </x:row>
     <x:row r="16" spans="1:10">
       <x:c r="A16" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
         <x:v>13</x:v>
@@ -892,10 +934,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -905,17 +947,15 @@
       <x:c r="B17" s="0" t="s"/>
       <x:c r="C17" s="0" t="s"/>
       <x:c r="D17" s="0" t="s"/>
-      <x:c r="E17" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
+      <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
@@ -925,78 +965,18 @@
       <x:c r="B18" s="0" t="s"/>
       <x:c r="C18" s="0" t="s"/>
       <x:c r="D18" s="0" t="s"/>
-      <x:c r="E18" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
+      <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:10">
-      <x:c r="A19" s="0" t="s"/>
-      <x:c r="B19" s="0" t="s"/>
-      <x:c r="C19" s="0" t="s"/>
-      <x:c r="D19" s="0" t="s"/>
-      <x:c r="E19" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s"/>
-      <x:c r="J19" s="0" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:10">
-      <x:c r="A20" s="0" t="s"/>
-      <x:c r="B20" s="0" t="s"/>
-      <x:c r="C20" s="0" t="s"/>
-      <x:c r="D20" s="0" t="s"/>
-      <x:c r="E20" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F20" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s"/>
-      <x:c r="J20" s="0" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:10">
-      <x:c r="A21" s="0" t="s"/>
-      <x:c r="B21" s="0" t="s"/>
-      <x:c r="C21" s="0" t="s"/>
-      <x:c r="D21" s="0" t="s"/>
-      <x:c r="E21" s="0" t="s"/>
-      <x:c r="F21" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="I21" s="0" t="s"/>
-      <x:c r="J21" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
